--- a/fathkouhi_xai-swarm/dataset_results.xlsx
+++ b/fathkouhi_xai-swarm/dataset_results.xlsx
@@ -450,111 +450,99 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.01863394578297933</v>
+        <v>0.008250176906585693</v>
       </c>
       <c r="D2">
-        <v>0.1176487259563083</v>
+        <v>0.141709987099445</v>
       </c>
       <c r="E2">
-        <v>0.5886685586236536</v>
+        <v>0.75</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>0.6223696859661297</v>
-      </c>
       <c r="H2">
-        <v>0.2102087814285707</v>
+        <v>0.5588844278578688</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.004117695490519205</v>
+        <v>0.001450073719024658</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5439089821815914</v>
+        <v>0.6098440420020196</v>
       </c>
       <c r="F3">
-        <v>0.08703619149399616</v>
-      </c>
-      <c r="G3">
-        <v>0.3743592764390047</v>
+        <v>-99999999999</v>
       </c>
       <c r="H3">
-        <v>0.1725940592680896</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.01609450181325277</v>
+        <v>0.01516852378845215</v>
       </c>
       <c r="D4">
-        <v>0.2424530234359505</v>
+        <v>0.1824164507850559</v>
       </c>
       <c r="E4">
-        <v>0.6345407076844948</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
-        <v>0.1953520274393111</v>
-      </c>
-      <c r="G4">
-        <v>0.4410346525564152</v>
+        <v>-99999999999</v>
       </c>
       <c r="H4">
-        <v>0.2491301277193513</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.006867074966430664</v>
+        <v>0.00774993896484375</v>
       </c>
       <c r="D5">
-        <v>0.04790337759649033</v>
+        <v>0.05151285253602077</v>
       </c>
       <c r="E5">
-        <v>0.5230035887931193</v>
+        <v>0.7497330358787044</v>
       </c>
       <c r="F5">
-        <v>0.1556824073748528</v>
-      </c>
-      <c r="G5">
-        <v>0.5790770310170652</v>
+        <v>-99999999999</v>
       </c>
       <c r="H5">
-        <v>0.1886277596700438</v>
+        <v>0.9499999921600505</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -562,7 +550,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -570,111 +558,99 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02348083655039469</v>
+        <v>0.009400129318237305</v>
       </c>
       <c r="D8">
-        <v>0.0760387258589062</v>
+        <v>0.1741864622132192</v>
       </c>
       <c r="E8">
-        <v>0.5750390849273948</v>
+        <v>0.75</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8">
-        <v>0.5070937743681484</v>
-      </c>
       <c r="H8">
-        <v>0.2160348382721704</v>
+        <v>0.5885917089798713</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.003022321065266927</v>
+        <v>0.001249957084655762</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6575330034007637</v>
+        <v>0.5664336763632065</v>
       </c>
       <c r="F9">
-        <v>0.04193978382360981</v>
-      </c>
-      <c r="G9">
-        <v>0.492888123155125</v>
+        <v>-99999999999</v>
       </c>
       <c r="H9">
-        <v>0.2404629332354124</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.006753142674763997</v>
+        <v>0.003549933433532715</v>
       </c>
       <c r="D10">
-        <v>0.2674592488748546</v>
+        <v>0.1975382524114278</v>
       </c>
       <c r="E10">
-        <v>0.6799236080412359</v>
+        <v>0.75</v>
       </c>
       <c r="F10">
-        <v>0.1639300648590314</v>
-      </c>
-      <c r="G10">
-        <v>0.3430951457567055</v>
+        <v>-99999999999</v>
       </c>
       <c r="H10">
-        <v>0.2463206047963793</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.006447601318359375</v>
+        <v>0.007249855995178222</v>
       </c>
       <c r="D11">
-        <v>0.08094150182783191</v>
+        <v>0.0681689765060398</v>
       </c>
       <c r="E11">
-        <v>0.6063101120105867</v>
+        <v>0.7178605871341694</v>
       </c>
       <c r="F11">
-        <v>0.07566417644623277</v>
-      </c>
-      <c r="G11">
-        <v>0.5283009708195464</v>
+        <v>-99999999999</v>
       </c>
       <c r="H11">
-        <v>0.2779001279089515</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -682,7 +658,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -690,137 +666,122 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>0.02499109903971354</v>
+        <v>0.01385000944137573</v>
       </c>
       <c r="D14">
-        <v>0.08300907074379676</v>
+        <v>0.1604107280558186</v>
       </c>
       <c r="E14">
-        <v>0.6448389143400641</v>
+        <v>0.75</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G14">
-        <v>0.154955269215545</v>
-      </c>
       <c r="H14">
-        <v>0.1652151208226871</v>
+        <v>0.4939926897478707</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0.06995880603790283</v>
+        <v>0.01495019197463989</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5790362077759138</v>
+        <v>0.6397671666393783</v>
       </c>
       <c r="F15">
-        <v>0.006057280811996127</v>
-      </c>
-      <c r="G15">
-        <v>0.3304856869291231</v>
+        <v>-99999999999</v>
       </c>
       <c r="H15">
-        <v>0.2461109496934923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>0.0164481242497762</v>
+        <v>0.009849929809570312</v>
       </c>
       <c r="D16">
-        <v>0.2793275407848325</v>
+        <v>0.09150784098751161</v>
       </c>
       <c r="E16">
-        <v>0.7266574197626237</v>
+        <v>0.75</v>
       </c>
       <c r="F16">
-        <v>1.455990622801958E-16</v>
-      </c>
-      <c r="G16">
-        <v>0.3410832562016573</v>
+        <v>-99999999999</v>
       </c>
       <c r="H16">
-        <v>0.2839218341936892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0.02549652258555095</v>
+        <v>0.02109994888305664</v>
       </c>
       <c r="D17">
-        <v>0.1672686728395062</v>
+        <v>0.03946104889071948</v>
       </c>
       <c r="E17">
-        <v>0.5511399986848773</v>
+        <v>0.7253520981516716</v>
       </c>
       <c r="F17">
-        <v>0.01678642899534295</v>
-      </c>
-      <c r="G17">
-        <v>0.3043220914388984</v>
+        <v>-99999999999</v>
       </c>
       <c r="H17">
-        <v>0.3221198706190935</v>
+        <v>0.9999999957569543</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>0.001368888219197591</v>
+        <v>0.001199972629547119</v>
       </c>
       <c r="D18">
-        <v>0.05586265330603058</v>
+        <v>0.05160575763922311</v>
       </c>
       <c r="E18">
-        <v>0.7183616702850361</v>
+        <v>0.75</v>
       </c>
       <c r="F18">
-        <v>0.06418389071261398</v>
-      </c>
-      <c r="G18">
-        <v>0.3385040468935262</v>
+        <v>-99999999999</v>
       </c>
       <c r="H18">
-        <v>0.23950706358119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>

--- a/fathkouhi_xai-swarm/dataset_results.xlsx
+++ b/fathkouhi_xai-swarm/dataset_results.xlsx
@@ -450,99 +450,111 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.008250176906585693</v>
+        <v>0.007422171698676215</v>
       </c>
       <c r="D2">
-        <v>0.141709987099445</v>
+        <v>0.05404838756752844</v>
       </c>
       <c r="E2">
-        <v>0.75</v>
+        <v>0.5730676172984162</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2">
+        <v>0.9108970018316755</v>
+      </c>
       <c r="H2">
-        <v>0.5588844278578688</v>
+        <v>0.4463441133083679</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.001450073719024658</v>
+        <v>0.0009778287675645616</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6098440420020196</v>
+        <v>0.5423396591252703</v>
       </c>
       <c r="F3">
-        <v>-99999999999</v>
+        <v>0.1106617288900238</v>
+      </c>
+      <c r="G3">
+        <v>0.610659623242098</v>
       </c>
       <c r="H3">
-        <v>0.95</v>
+        <v>0.4908448672938368</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.01516852378845215</v>
+        <v>0.02057157622443305</v>
       </c>
       <c r="D4">
-        <v>0.1824164507850559</v>
+        <v>0.07216047698291159</v>
       </c>
       <c r="E4">
-        <v>0.75</v>
+        <v>0.6029653030306688</v>
       </c>
       <c r="F4">
-        <v>-99999999999</v>
+        <v>0.4133368865996102</v>
+      </c>
+      <c r="G4">
+        <v>0.1871477859375764</v>
       </c>
       <c r="H4">
-        <v>0.95</v>
+        <v>0.5184700634030166</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.00774993896484375</v>
+        <v>0.003688875834147135</v>
       </c>
       <c r="D5">
-        <v>0.05151285253602077</v>
+        <v>0.04966033072703212</v>
       </c>
       <c r="E5">
-        <v>0.7497330358787044</v>
+        <v>0.6027451222355894</v>
       </c>
       <c r="F5">
-        <v>-99999999999</v>
+        <v>0.1564821779084375</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.9499999921600505</v>
+        <v>0.5140981956488526</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -550,7 +562,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -558,99 +570,111 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.009400129318237305</v>
+        <v>0.01609137852986654</v>
       </c>
       <c r="D8">
-        <v>0.1741864622132192</v>
+        <v>0.03965521777670003</v>
       </c>
       <c r="E8">
-        <v>0.75</v>
+        <v>0.5166318033986697</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
+      <c r="G8">
+        <v>0.7567093597297725</v>
+      </c>
       <c r="H8">
-        <v>0.5885917089798713</v>
+        <v>0.4352163013480074</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.001249957084655762</v>
+        <v>0.00171108775668674</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5664336763632065</v>
+        <v>0.5845420115362205</v>
       </c>
       <c r="F9">
-        <v>-99999999999</v>
+        <v>0.03086588189007642</v>
+      </c>
+      <c r="G9">
+        <v>0.4353627461099865</v>
       </c>
       <c r="H9">
-        <v>0.95</v>
+        <v>0.5171899530348314</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.003549933433532715</v>
+        <v>0.01513337559170193</v>
       </c>
       <c r="D10">
-        <v>0.1975382524114278</v>
+        <v>0.06082483630657068</v>
       </c>
       <c r="E10">
-        <v>0.75</v>
+        <v>0.6985799879957091</v>
       </c>
       <c r="F10">
-        <v>-99999999999</v>
+        <v>0.06916161671425963</v>
+      </c>
+      <c r="G10">
+        <v>0.6742350166568208</v>
       </c>
       <c r="H10">
-        <v>0.95</v>
+        <v>0.4480304935346068</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.007249855995178222</v>
+        <v>0.004450019200642904</v>
       </c>
       <c r="D11">
-        <v>0.0681689765060398</v>
+        <v>0.01821974005050921</v>
       </c>
       <c r="E11">
-        <v>0.7178605871341694</v>
+        <v>0.6433964685733342</v>
       </c>
       <c r="F11">
-        <v>-99999999999</v>
+        <v>0.0453203490229067</v>
+      </c>
+      <c r="G11">
+        <v>0.5545945154334035</v>
       </c>
       <c r="H11">
-        <v>0.95</v>
+        <v>0.5057494527585858</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -658,7 +682,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -666,122 +690,119 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>0.01385000944137573</v>
+        <v>0.01471405029296875</v>
       </c>
       <c r="D14">
-        <v>0.1604107280558186</v>
+        <v>0.08274725963866338</v>
       </c>
       <c r="E14">
-        <v>0.75</v>
+        <v>0.5260768825791047</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
+      <c r="G14">
+        <v>0.6497545729087133</v>
+      </c>
       <c r="H14">
-        <v>0.4939926897478707</v>
+        <v>0.4584915460301788</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0.01495019197463989</v>
+        <v>0.008022234174940321</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6397671666393783</v>
+        <v>0.5207937294925312</v>
       </c>
       <c r="F15">
-        <v>-99999999999</v>
+        <v>2.111778686941232</v>
+      </c>
+      <c r="G15">
+        <v>0.3144426794674558</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.7266760754838889</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>0.009849929809570312</v>
-      </c>
-      <c r="D16">
-        <v>0.09150784098751161</v>
-      </c>
-      <c r="E16">
-        <v>0.75</v>
-      </c>
-      <c r="F16">
-        <v>-99999999999</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0.02109994888305664</v>
+        <v>0.01075559192233615</v>
       </c>
       <c r="D17">
-        <v>0.03946104889071948</v>
+        <v>0.09272044252044251</v>
       </c>
       <c r="E17">
-        <v>0.7253520981516716</v>
+        <v>0.5068856277535488</v>
       </c>
       <c r="F17">
-        <v>-99999999999</v>
+        <v>2.271929519051741</v>
+      </c>
+      <c r="G17">
+        <v>0.5455703382854097</v>
       </c>
       <c r="H17">
-        <v>0.9999999957569543</v>
+        <v>0.6976934729898724</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>0.001199972629547119</v>
+        <v>0.1332427024841309</v>
       </c>
       <c r="D18">
-        <v>0.05160575763922311</v>
+        <v>0.08169695769061171</v>
       </c>
       <c r="E18">
-        <v>0.75</v>
+        <v>0.5245280886176105</v>
       </c>
       <c r="F18">
-        <v>-99999999999</v>
+        <v>0.5918686524458537</v>
+      </c>
+      <c r="G18">
+        <v>0.6520549337502856</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.7938374747140284</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>

--- a/fathkouhi_xai-swarm/dataset_results.xlsx
+++ b/fathkouhi_xai-swarm/dataset_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>dataset_id</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>treeshap_approx</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -450,111 +447,93 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.007422171698676215</v>
+        <v>0.007813232113616635</v>
       </c>
       <c r="D2">
-        <v>0.05404838756752844</v>
+        <v>0.004147371992183714</v>
       </c>
       <c r="E2">
-        <v>0.5730676172984162</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>0.563568696263808</v>
+      </c>
+      <c r="F2">
+        <v>0.03137640795103311</v>
       </c>
       <c r="G2">
-        <v>0.9108970018316755</v>
+        <v>0.92607920337253</v>
       </c>
       <c r="H2">
-        <v>0.4463441133083679</v>
+        <v>0.5005476393625529</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.0009778287675645616</v>
+        <v>0.0008606429051871251</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5423396591252703</v>
+        <v>0.5316665078224725</v>
       </c>
       <c r="F3">
-        <v>0.1106617288900238</v>
+        <v>0.0132987817982992</v>
       </c>
       <c r="G3">
-        <v>0.610659623242098</v>
+        <v>0.6999046689897563</v>
       </c>
       <c r="H3">
-        <v>0.4908448672938368</v>
+        <v>0.374023329705004</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>0.02057157622443305</v>
-      </c>
-      <c r="D4">
-        <v>0.07216047698291159</v>
-      </c>
-      <c r="E4">
-        <v>0.6029653030306688</v>
-      </c>
-      <c r="F4">
-        <v>0.4133368865996102</v>
-      </c>
-      <c r="G4">
-        <v>0.1871477859375764</v>
-      </c>
-      <c r="H4">
-        <v>0.5184700634030166</v>
-      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.003688875834147135</v>
+        <v>0.002192198628126973</v>
       </c>
       <c r="D5">
-        <v>0.04966033072703212</v>
+        <v>0.004317779777064974</v>
       </c>
       <c r="E5">
-        <v>0.6027451222355894</v>
+        <v>0.5800832856857969</v>
       </c>
       <c r="F5">
-        <v>0.1564821779084375</v>
+        <v>0.01752984157320984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.5140981956488526</v>
+        <v>0.333139592988521</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -562,7 +541,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -570,111 +549,93 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.01609137852986654</v>
+        <v>0.3594421593829839</v>
       </c>
       <c r="D8">
-        <v>0.03965521777670003</v>
+        <v>0.003512244771427875</v>
       </c>
       <c r="E8">
-        <v>0.5166318033986697</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
+        <v>0.607171601262595</v>
+      </c>
+      <c r="F8">
+        <v>0.009456633993971602</v>
       </c>
       <c r="G8">
-        <v>0.7567093597297725</v>
+        <v>0.2649798212838899</v>
       </c>
       <c r="H8">
-        <v>0.4352163013480074</v>
+        <v>0.4243942690658604</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.00171108775668674</v>
+        <v>0.008288270295268357</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5845420115362205</v>
+        <v>0.5161009602611053</v>
       </c>
       <c r="F9">
-        <v>0.03086588189007642</v>
+        <v>0.007330797694000963</v>
       </c>
       <c r="G9">
-        <v>0.4353627461099865</v>
+        <v>0.4671846154175276</v>
       </c>
       <c r="H9">
-        <v>0.5171899530348314</v>
+        <v>0.4065372241510318</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>0.01513337559170193</v>
-      </c>
-      <c r="D10">
-        <v>0.06082483630657068</v>
-      </c>
-      <c r="E10">
-        <v>0.6985799879957091</v>
-      </c>
-      <c r="F10">
-        <v>0.06916161671425963</v>
-      </c>
-      <c r="G10">
-        <v>0.6742350166568208</v>
-      </c>
-      <c r="H10">
-        <v>0.4480304935346068</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.004450019200642904</v>
+        <v>0.009555997270526308</v>
       </c>
       <c r="D11">
-        <v>0.01821974005050921</v>
+        <v>0.005083281651018024</v>
       </c>
       <c r="E11">
-        <v>0.6433964685733342</v>
+        <v>0.5310588827883529</v>
       </c>
       <c r="F11">
-        <v>0.0453203490229067</v>
+        <v>0.007430164829129253</v>
       </c>
       <c r="G11">
-        <v>0.5545945154334035</v>
+        <v>0.6639648619693115</v>
       </c>
       <c r="H11">
-        <v>0.5057494527585858</v>
+        <v>0.3984461352010127</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -682,7 +643,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -690,59 +651,59 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>0.01471405029296875</v>
+        <v>0.01793570951981978</v>
       </c>
       <c r="D14">
-        <v>0.08274725963866338</v>
+        <v>0.008717908222637722</v>
       </c>
       <c r="E14">
-        <v>0.5260768825791047</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
+        <v>0.5106098151180136</v>
+      </c>
+      <c r="F14">
+        <v>0.0922652867543156</v>
       </c>
       <c r="G14">
-        <v>0.6497545729087133</v>
+        <v>0.3493058275476718</v>
       </c>
       <c r="H14">
-        <v>0.4584915460301788</v>
+        <v>0.8739144838012928</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0.008022234174940321</v>
+        <v>0.008952627278337575</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5207937294925312</v>
+        <v>0.5014435847095507</v>
       </c>
       <c r="F15">
-        <v>2.111778686941232</v>
+        <v>1.950494296865561</v>
       </c>
       <c r="G15">
-        <v>0.3144426794674558</v>
+        <v>0.2682266860104274</v>
       </c>
       <c r="H15">
-        <v>0.7266760754838889</v>
+        <v>0.9494949494949495</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -750,59 +711,59 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0.01075559192233615</v>
+        <v>0.01062813672152432</v>
       </c>
       <c r="D17">
-        <v>0.09272044252044251</v>
+        <v>0.01282318130802979</v>
       </c>
       <c r="E17">
-        <v>0.5068856277535488</v>
+        <v>0.5082855526701463</v>
       </c>
       <c r="F17">
-        <v>2.271929519051741</v>
+        <v>8.356541189124737</v>
       </c>
       <c r="G17">
-        <v>0.5455703382854097</v>
+        <v>0.3190011180827582</v>
       </c>
       <c r="H17">
-        <v>0.6976934729898724</v>
+        <v>0.9494949494949495</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>0.1332427024841309</v>
+        <v>3.534951568853975</v>
       </c>
       <c r="D18">
-        <v>0.08169695769061171</v>
+        <v>0.005289766396895786</v>
       </c>
       <c r="E18">
-        <v>0.5245280886176105</v>
+        <v>0.5008197681227309</v>
       </c>
       <c r="F18">
-        <v>0.5918686524458537</v>
+        <v>0.9696293021123423</v>
       </c>
       <c r="G18">
-        <v>0.6520549337502856</v>
+        <v>0.439201506437299</v>
       </c>
       <c r="H18">
-        <v>0.7938374747140284</v>
+        <v>0.8995672249049096</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>712</v>
+        <v>42361</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>

--- a/fathkouhi_xai-swarm/dataset_results.xlsx
+++ b/fathkouhi_xai-swarm/dataset_results.xlsx
@@ -447,93 +447,111 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.007813232113616635</v>
+        <v>0.006651410579681397</v>
       </c>
       <c r="D2">
-        <v>0.004147371992183714</v>
+        <v>0.05387878776132599</v>
       </c>
       <c r="E2">
-        <v>0.563568696263808</v>
+        <v>0.5166787241823061</v>
       </c>
       <c r="F2">
-        <v>0.03137640795103311</v>
+        <v>143.6379943780332</v>
       </c>
       <c r="G2">
-        <v>0.92607920337253</v>
+        <v>0.7268710752624636</v>
       </c>
       <c r="H2">
-        <v>0.5005476393625529</v>
+        <v>0.4282221033088758</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.0008606429051871251</v>
+        <v>0.0006180951595306396</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5316665078224725</v>
+        <v>0.5141593544511416</v>
       </c>
       <c r="F3">
-        <v>0.0132987817982992</v>
+        <v>1.163808281705519</v>
       </c>
       <c r="G3">
-        <v>0.6999046689897563</v>
+        <v>0.6964548607233247</v>
       </c>
       <c r="H3">
-        <v>0.374023329705004</v>
+        <v>0.5965230054560423</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4">
+        <v>0.005169792652130127</v>
+      </c>
+      <c r="D4">
+        <v>0.3915989497286942</v>
+      </c>
+      <c r="E4">
+        <v>0.5057342988722463</v>
+      </c>
+      <c r="F4">
+        <v>5.810762953798053</v>
+      </c>
+      <c r="G4">
+        <v>0.09751340608820377</v>
+      </c>
+      <c r="H4">
+        <v>0.6007151185338092</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.002192198628126973</v>
+        <v>0.0007914485931396484</v>
       </c>
       <c r="D5">
-        <v>0.004317779777064974</v>
+        <v>0.04245748128447714</v>
       </c>
       <c r="E5">
-        <v>0.5800832856857969</v>
+        <v>0.5200504403025588</v>
       </c>
       <c r="F5">
-        <v>0.01752984157320984</v>
+        <v>0.2843030601287078</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.8828806920710865</v>
       </c>
       <c r="H5">
-        <v>0.333139592988521</v>
+        <v>0.6217719577826247</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -541,7 +559,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -549,93 +567,111 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.3594421593829839</v>
+        <v>0.01487773871421814</v>
       </c>
       <c r="D8">
-        <v>0.003512244771427875</v>
+        <v>0.08116342011990793</v>
       </c>
       <c r="E8">
-        <v>0.607171601262595</v>
+        <v>0.5134620861933329</v>
       </c>
       <c r="F8">
-        <v>0.009456633993971602</v>
+        <v>95.1871101334326</v>
       </c>
       <c r="G8">
-        <v>0.2649798212838899</v>
+        <v>0.6820765092767367</v>
       </c>
       <c r="H8">
-        <v>0.4243942690658604</v>
+        <v>0.3748208906611177</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.008288270295268357</v>
+        <v>0.001086858749389648</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5161009602611053</v>
+        <v>0.5044447204051432</v>
       </c>
       <c r="F9">
-        <v>0.007330797694000963</v>
+        <v>2.439095929891434</v>
       </c>
       <c r="G9">
-        <v>0.4671846154175276</v>
+        <v>0.5539869915630264</v>
       </c>
       <c r="H9">
-        <v>0.4065372241510318</v>
+        <v>0.7572513075878698</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>0.004986169338226318</v>
+      </c>
+      <c r="D10">
+        <v>0.4576166387343156</v>
+      </c>
+      <c r="E10">
+        <v>0.5009966522197347</v>
+      </c>
+      <c r="F10">
+        <v>6.806235575627765</v>
+      </c>
+      <c r="G10">
+        <v>0.09710020361558451</v>
+      </c>
+      <c r="H10">
+        <v>0.7109968027661735</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.009555997270526308</v>
+        <v>0.001234082460403442</v>
       </c>
       <c r="D11">
-        <v>0.005083281651018024</v>
+        <v>0.04672971551699669</v>
       </c>
       <c r="E11">
-        <v>0.5310588827883529</v>
+        <v>0.5032965807282292</v>
       </c>
       <c r="F11">
-        <v>0.007430164829129253</v>
+        <v>3.674399204706955</v>
       </c>
       <c r="G11">
-        <v>0.6639648619693115</v>
+        <v>0.5454602172388905</v>
       </c>
       <c r="H11">
-        <v>0.3984461352010127</v>
+        <v>0.8301575865189351</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -643,7 +679,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -651,119 +687,137 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>0.01793570951981978</v>
+        <v>0.0101195068359375</v>
       </c>
       <c r="D14">
-        <v>0.008717908222637722</v>
+        <v>0.07762966430558728</v>
       </c>
       <c r="E14">
-        <v>0.5106098151180136</v>
+        <v>0.5189909705650222</v>
       </c>
       <c r="F14">
-        <v>0.0922652867543156</v>
+        <v>187.5646522736271</v>
       </c>
       <c r="G14">
-        <v>0.3493058275476718</v>
+        <v>0.6108728567344748</v>
       </c>
       <c r="H14">
-        <v>0.8739144838012928</v>
+        <v>0.4108543128542934</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0.008952627278337575</v>
+        <v>0.001110826969146728</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5014435847095507</v>
+        <v>0.5018033641729018</v>
       </c>
       <c r="F15">
-        <v>1.950494296865561</v>
+        <v>127.2733736867331</v>
       </c>
       <c r="G15">
-        <v>0.2682266860104274</v>
+        <v>0.3942809116089238</v>
       </c>
       <c r="H15">
-        <v>0.9494949494949495</v>
+        <v>0.9141901139162708</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
+      <c r="C16">
+        <v>0.009612228393554688</v>
+      </c>
+      <c r="D16">
+        <v>0.4677950000000031</v>
+      </c>
+      <c r="E16">
+        <v>0.5076676425484452</v>
+      </c>
+      <c r="F16">
+        <v>29.48401175143015</v>
+      </c>
+      <c r="G16">
+        <v>0.0789196400543947</v>
+      </c>
+      <c r="H16">
+        <v>0.7398929613530868</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0.01062813672152432</v>
+        <v>0.001476855278015137</v>
       </c>
       <c r="D17">
-        <v>0.01282318130802979</v>
+        <v>0.0522455000000011</v>
       </c>
       <c r="E17">
-        <v>0.5082855526701463</v>
+        <v>0.5005063151305371</v>
       </c>
       <c r="F17">
-        <v>8.356541189124737</v>
+        <v>146.9167001164121</v>
       </c>
       <c r="G17">
-        <v>0.3190011180827582</v>
+        <v>0.3186343596528569</v>
       </c>
       <c r="H17">
-        <v>0.9494949494949495</v>
+        <v>0.9264666663741034</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>3.534951568853975</v>
+        <v>0.04935028433799744</v>
       </c>
       <c r="D18">
-        <v>0.005289766396895786</v>
+        <v>0.04359819944936005</v>
       </c>
       <c r="E18">
-        <v>0.5008197681227309</v>
+        <v>0.5114769751299992</v>
       </c>
       <c r="F18">
-        <v>0.9696293021123423</v>
+        <v>5.384292569918741</v>
       </c>
       <c r="G18">
-        <v>0.439201506437299</v>
+        <v>0.5973645883176539</v>
       </c>
       <c r="H18">
-        <v>0.8995672249049096</v>
+        <v>0.7481944437455914</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>42361</v>
+        <v>42110</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>

--- a/fathkouhi_xai-swarm/dataset_results.xlsx
+++ b/fathkouhi_xai-swarm/dataset_results.xlsx
@@ -453,22 +453,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.006651410579681397</v>
+        <v>0.007170696258544922</v>
       </c>
       <c r="D2">
-        <v>0.05387878776132599</v>
+        <v>0.05854965294840351</v>
       </c>
       <c r="E2">
-        <v>0.5166787241823061</v>
+        <v>0.5163421568580981</v>
       </c>
       <c r="F2">
-        <v>143.6379943780332</v>
+        <v>93.3288415648842</v>
       </c>
       <c r="G2">
-        <v>0.7268710752624636</v>
+        <v>0.7516217438766092</v>
       </c>
       <c r="H2">
-        <v>0.4282221033088758</v>
+        <v>0.413716101694797</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -479,22 +479,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.0006180951595306396</v>
+        <v>0.0006669962406158447</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5141593544511416</v>
+        <v>0.5081729741976476</v>
       </c>
       <c r="F3">
-        <v>1.163808281705519</v>
+        <v>1.101691801690676</v>
       </c>
       <c r="G3">
-        <v>0.6964548607233247</v>
+        <v>0.6682014852060897</v>
       </c>
       <c r="H3">
-        <v>0.5965230054560423</v>
+        <v>0.5977090552849804</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -505,22 +505,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.005169792652130127</v>
+        <v>0.005491038084030151</v>
       </c>
       <c r="D4">
-        <v>0.3915989497286942</v>
+        <v>0.389635048807366</v>
       </c>
       <c r="E4">
-        <v>0.5057342988722463</v>
+        <v>0.5005281205025253</v>
       </c>
       <c r="F4">
-        <v>5.810762953798053</v>
+        <v>5.045363375794814</v>
       </c>
       <c r="G4">
-        <v>0.09751340608820377</v>
+        <v>0.07759089882367151</v>
       </c>
       <c r="H4">
-        <v>0.6007151185338092</v>
+        <v>0.6195347416839422</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -531,22 +531,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.0007914485931396484</v>
+        <v>0.0008120038509368897</v>
       </c>
       <c r="D5">
-        <v>0.04245748128447714</v>
+        <v>0.04831605525003665</v>
       </c>
       <c r="E5">
-        <v>0.5200504403025588</v>
+        <v>0.5143755480702108</v>
       </c>
       <c r="F5">
-        <v>0.2843030601287078</v>
+        <v>0.3157011901440784</v>
       </c>
       <c r="G5">
-        <v>0.8828806920710865</v>
+        <v>0.8959467073223877</v>
       </c>
       <c r="H5">
-        <v>0.6217719577826247</v>
+        <v>0.6277776133825511</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -573,22 +573,22 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.01487773871421814</v>
+        <v>0.01399163436889648</v>
       </c>
       <c r="D8">
-        <v>0.08116342011990793</v>
+        <v>0.09076454408883071</v>
       </c>
       <c r="E8">
-        <v>0.5134620861933329</v>
+        <v>0.5105736343848037</v>
       </c>
       <c r="F8">
-        <v>95.1871101334326</v>
+        <v>211.3546378286935</v>
       </c>
       <c r="G8">
-        <v>0.6820765092767367</v>
+        <v>0.7247620119362981</v>
       </c>
       <c r="H8">
-        <v>0.3748208906611177</v>
+        <v>0.3929113426256958</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -599,22 +599,22 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.001086858749389648</v>
+        <v>0.001170998096466064</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5044447204051432</v>
+        <v>0.5002623089518469</v>
       </c>
       <c r="F9">
-        <v>2.439095929891434</v>
+        <v>2.969154735160846</v>
       </c>
       <c r="G9">
-        <v>0.5539869915630264</v>
+        <v>0.5236308812017739</v>
       </c>
       <c r="H9">
-        <v>0.7572513075878698</v>
+        <v>0.7941086248916646</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -625,22 +625,22 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.004986169338226318</v>
+        <v>0.005529217004776001</v>
       </c>
       <c r="D10">
-        <v>0.4576166387343156</v>
+        <v>0.4571150681447236</v>
       </c>
       <c r="E10">
-        <v>0.5009966522197347</v>
+        <v>0.5020518547195553</v>
       </c>
       <c r="F10">
-        <v>6.806235575627765</v>
+        <v>5.924072882263879</v>
       </c>
       <c r="G10">
-        <v>0.09710020361558451</v>
+        <v>0.08626157952036427</v>
       </c>
       <c r="H10">
-        <v>0.7109968027661735</v>
+        <v>0.7711421805795993</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -651,22 +651,22 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.001234082460403442</v>
+        <v>0.002266806602478027</v>
       </c>
       <c r="D11">
-        <v>0.04672971551699669</v>
+        <v>0.05254408116690393</v>
       </c>
       <c r="E11">
-        <v>0.5032965807282292</v>
+        <v>0.5007763243248167</v>
       </c>
       <c r="F11">
-        <v>3.674399204706955</v>
+        <v>4.016887352042962</v>
       </c>
       <c r="G11">
-        <v>0.5454602172388905</v>
+        <v>0.5397314369698256</v>
       </c>
       <c r="H11">
-        <v>0.8301575865189351</v>
+        <v>0.794490989846325</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -693,22 +693,22 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>0.0101195068359375</v>
+        <v>0.01269933271408081</v>
       </c>
       <c r="D14">
-        <v>0.07762966430558728</v>
+        <v>0.07727115915945708</v>
       </c>
       <c r="E14">
-        <v>0.5189909705650222</v>
+        <v>0.5196686879550672</v>
       </c>
       <c r="F14">
-        <v>187.5646522736271</v>
+        <v>168.476467208258</v>
       </c>
       <c r="G14">
-        <v>0.6108728567344748</v>
+        <v>0.6984234255186959</v>
       </c>
       <c r="H14">
-        <v>0.4108543128542934</v>
+        <v>0.3958536345480781</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -719,22 +719,22 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0.001110826969146728</v>
+        <v>0.001244996309280396</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5018033641729018</v>
+        <v>0.5082518770364075</v>
       </c>
       <c r="F15">
-        <v>127.2733736867331</v>
+        <v>66.26743494963517</v>
       </c>
       <c r="G15">
-        <v>0.3942809116089238</v>
+        <v>0.3858356289169326</v>
       </c>
       <c r="H15">
-        <v>0.9141901139162708</v>
+        <v>0.8885341387765912</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -745,22 +745,22 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>0.009612228393554688</v>
+        <v>0.01354909038543701</v>
       </c>
       <c r="D16">
-        <v>0.4677950000000031</v>
+        <v>0.4647300000000006</v>
       </c>
       <c r="E16">
-        <v>0.5076676425484452</v>
+        <v>0.5009459284651711</v>
       </c>
       <c r="F16">
-        <v>29.48401175143015</v>
+        <v>17.98016688753263</v>
       </c>
       <c r="G16">
-        <v>0.0789196400543947</v>
+        <v>0.1110687547057498</v>
       </c>
       <c r="H16">
-        <v>0.7398929613530868</v>
+        <v>0.6807823532312848</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -771,22 +771,22 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0.001476855278015137</v>
+        <v>0.001382843732833862</v>
       </c>
       <c r="D17">
-        <v>0.0522455000000011</v>
+        <v>0.05980499999999882</v>
       </c>
       <c r="E17">
-        <v>0.5005063151305371</v>
+        <v>0.5020904867703494</v>
       </c>
       <c r="F17">
-        <v>146.9167001164121</v>
+        <v>85.24786814212612</v>
       </c>
       <c r="G17">
-        <v>0.3186343596528569</v>
+        <v>0.3488622737126936</v>
       </c>
       <c r="H17">
-        <v>0.9264666663741034</v>
+        <v>0.906385631503494</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -797,22 +797,22 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>0.04935028433799744</v>
+        <v>0.07032406830787659</v>
       </c>
       <c r="D18">
-        <v>0.04359819944936005</v>
+        <v>0.04108609890853951</v>
       </c>
       <c r="E18">
-        <v>0.5114769751299992</v>
+        <v>0.5059269763397152</v>
       </c>
       <c r="F18">
-        <v>5.384292569918741</v>
+        <v>14.67640076387055</v>
       </c>
       <c r="G18">
-        <v>0.5973645883176539</v>
+        <v>0.5841821220438947</v>
       </c>
       <c r="H18">
-        <v>0.7481944437455914</v>
+        <v>0.7374674716097327</v>
       </c>
     </row>
     <row r="19" spans="1:8">
